--- a/anzhuang/myCmdNotes.xlsx
+++ b/anzhuang/myCmdNotes.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Linux" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="PyCV" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Install" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Gimp" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="GimpVLC" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="苹果" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="C+" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="360">
   <si>
     <t xml:space="preserve">index</t>
   </si>
@@ -87,6 +87,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">显示已知应用</t>
     </r>
@@ -106,6 +107,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">比如</t>
     </r>
@@ -125,6 +127,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">有哪些进程在运行</t>
     </r>
@@ -139,6 +142,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">显示所有进程</t>
     </r>
@@ -158,6 +162,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不常用</t>
     </r>
@@ -380,6 +385,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">现在有方法自动启动共享文件夹且两系统自如复制粘贴 ，需执行两条指令</t>
     </r>
@@ -426,6 +432,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注意点</t>
     </r>
@@ -445,6 +452,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不点</t>
     </r>
@@ -469,6 +477,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">退出</t>
     </r>
@@ -551,6 +560,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不同压缩包</t>
     </r>
@@ -620,6 +630,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">指令 </t>
     </r>
@@ -669,6 +680,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">里把</t>
     </r>
@@ -688,6 +700,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">替换为虚拟盘符路径</t>
     </r>
@@ -727,6 +740,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">查看所有文件列表</t>
     </r>
@@ -746,6 +760,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">让它们在文件夹也显示出来</t>
     </r>
@@ -766,6 +781,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">查</t>
     </r>
@@ -785,6 +801,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本</t>
     </r>
@@ -809,6 +826,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个文件的第</t>
     </r>
@@ -828,6 +846,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -847,6 +866,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行</t>
     </r>
@@ -868,6 +888,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件名 </t>
     </r>
@@ -887,6 +908,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">续存到新文件</t>
     </r>
@@ -908,6 +930,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">语句</t>
     </r>
@@ -929,6 +952,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最后写 </t>
     </r>
@@ -960,6 +984,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">语句同时两个字串都不在时</t>
     </r>
@@ -981,6 +1006,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">最后写  </t>
     </r>
@@ -1008,6 +1034,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">找文件最后一列</t>
     </r>
@@ -1027,6 +1054,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分割符</t>
     </r>
@@ -1051,6 +1079,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">找第</t>
     </r>
@@ -1070,6 +1099,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">列</t>
     </r>
@@ -1089,6 +1119,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分隔符</t>
     </r>
@@ -1113,6 +1144,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">数第</t>
     </r>
@@ -1132,6 +1164,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">列中不同字串</t>
     </r>
@@ -1151,6 +1184,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分隔符 </t>
     </r>
@@ -1175,6 +1209,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">看</t>
     </r>
@@ -1194,6 +1229,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表</t>
     </r>
@@ -1213,6 +1249,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如果有</t>
     </r>
@@ -1232,6 +1269,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项内容就是</t>
     </r>
@@ -1251,6 +1289,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">了</t>
     </r>
@@ -1278,6 +1317,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">替换文件名 </t>
     </r>
@@ -1297,6 +1337,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用来只显示，去掉后执行改变</t>
     </r>
@@ -1328,6 +1369,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">旧</t>
     </r>
@@ -1347,6 +1389,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新</t>
     </r>
@@ -1371,15 +1414,16 @@
     <t xml:space="preserve">只复制子文件夹内容</t>
   </si>
   <si>
-    <t xml:space="preserve">c p -a folder1/* folder2/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <t xml:space="preserve">cp -a folder1/* folder2/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">删文件夹内容留子文件夹 </t>
     </r>
@@ -1404,6 +1448,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">删文件夹</t>
     </r>
@@ -1435,6 +1480,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">目录</t>
     </r>
@@ -1452,6 +1498,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">列表</t>
     </r>
@@ -1476,6 +1523,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">建立</t>
     </r>
@@ -1495,6 +1543,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所在文件夹须含</t>
     </r>
@@ -1526,6 +1575,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名 </t>
     </r>
@@ -1547,6 +1597,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">清除</t>
     </r>
@@ -1590,6 +1641,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名</t>
     </r>
@@ -1601,6 +1653,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">列表</t>
     </r>
@@ -1625,6 +1678,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">启动一个</t>
     </r>
@@ -1644,6 +1698,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">结果的</t>
     </r>
@@ -1663,6 +1718,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">之后是</t>
     </r>
@@ -1694,6 +1750,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名 </t>
     </r>
@@ -1715,6 +1772,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">启动并进入一个</t>
     </r>
@@ -1734,6 +1792,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">通过启动</t>
     </r>
@@ -1753,6 +1812,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">得到的</t>
     </r>
@@ -1772,6 +1832,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">执行后回车</t>
     </r>
@@ -1783,6 +1844,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在另一个</t>
     </r>
@@ -1802,6 +1864,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">窗口 </t>
     </r>
@@ -1823,6 +1886,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">显示所有</t>
     </r>
@@ -1860,6 +1924,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">作者</t>
     </r>
@@ -1879,6 +1944,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">解释</t>
     </r>
@@ -1898,6 +1964,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名</t>
     </r>
@@ -1909,6 +1976,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">保存</t>
     </r>
@@ -1928,6 +1996,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用于转移到其它电脑</t>
     </r>
@@ -1949,6 +2018,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名 </t>
     </r>
@@ -1970,6 +2040,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在其它环境</t>
     </r>
@@ -1989,6 +2060,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个之前保存的</t>
     </r>
@@ -2022,6 +2094,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">运行</t>
     </r>
@@ -2041,6 +2114,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">会自动下载</t>
     </r>
@@ -2065,6 +2139,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">显示</t>
     </r>
@@ -2092,6 +2167,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进入一个</t>
     </r>
@@ -2111,6 +2187,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">后会显示</t>
     </r>
@@ -2130,6 +2207,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">后的数字就是相对应的</t>
     </r>
@@ -2149,6 +2227,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，退出</t>
     </r>
@@ -2166,6 +2245,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">找到那个想建立的</t>
     </r>
@@ -2185,6 +2265,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，用</t>
     </r>
@@ -2204,6 +2285,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">来启动它</t>
     </r>
@@ -2218,6 +2300,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">加载</t>
     </r>
@@ -2237,6 +2320,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，按</t>
     </r>
@@ -2267,6 +2351,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">退出 </t>
     </r>
@@ -2349,6 +2434,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">它说不存在的名</t>
     </r>
@@ -2366,6 +2452,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">设置非</t>
     </r>
@@ -2385,6 +2472,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -2404,6 +2492,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件末</t>
     </r>
@@ -2424,6 +2513,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">工具</t>
     </r>
@@ -2445,6 +2535,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">显示并排窗口</t>
     </r>
@@ -2464,6 +2555,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">纵排，关</t>
     </r>
@@ -2503,6 +2595,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">列出文件名</t>
     </r>
@@ -2559,6 +2652,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关一个</t>
     </r>
@@ -2583,6 +2677,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">显示可用</t>
     </r>
@@ -2616,7 +2711,7 @@
     <t xml:space="preserve">Convert cv2im to Pil im</t>
   </si>
   <si>
-    <t xml:space="preserve">Im1=cv2.cvt Color(cv2im,cv2.COLOR_BGR2RGB)</t>
+    <t xml:space="preserve">Im1=cv2.cvtColor(cv2im,cv2.COLOR_BGR2RGB)</t>
   </si>
   <si>
     <t xml:space="preserve">pil_im=Image.from array(im1)</t>
@@ -2625,7 +2720,21 @@
     <t xml:space="preserve">back to cv2</t>
   </si>
   <si>
-    <t xml:space="preserve">Im2=cv2.cvt Color(np.array(pil_im),cv2.COLOR_RGB2BGR)</t>
+    <t xml:space="preserve">Im2=cv2.cvtColor(np.array(pil_im),cv2.COLOR_RGB2BGR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for string in file name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if string.find(filenname, label) != -1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write texts into a new file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f = open((output_file,’w’)
+f.write(“\n”.join(file_label_name))
+</t>
   </si>
   <si>
     <t xml:space="preserve">Bigdata</t>
@@ -2637,7 +2746,7 @@
     <t xml:space="preserve">dataframe can be loaded csv file as pandas object</t>
   </si>
   <si>
-    <t xml:space="preserve">dataFrame.jion(the_other_dataframe,on=,how=,lsuffix=,rsuffix=)</t>
+    <t xml:space="preserve">dataFrame.join(the_other_dataframe,on=,how=,lsuffix=,rsuffix=)</t>
   </si>
   <si>
     <t xml:space="preserve">merge</t>
@@ -2661,6 +2770,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用</t>
     </r>
@@ -2680,6 +2790,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">前要在</t>
     </r>
@@ -2699,6 +2810,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">里选</t>
     </r>
@@ -2729,6 +2841,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">查版本</t>
     </r>
@@ -2750,6 +2863,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装</t>
     </r>
@@ -2780,6 +2894,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装</t>
     </r>
@@ -2810,6 +2925,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装</t>
     </r>
@@ -2834,6 +2950,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">检查版本应至少</t>
     </r>
@@ -2864,6 +2981,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">运行</t>
     </r>
@@ -2888,6 +3006,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">退出</t>
     </r>
@@ -2918,6 +3037,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在启动时按住左</t>
     </r>
@@ -2937,6 +3057,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进入</t>
     </r>
@@ -2956,6 +3077,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">菜单，选</t>
     </r>
@@ -2975,6 +3097,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">选</t>
     </r>
@@ -2996,6 +3119,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">选</t>
     </r>
@@ -3030,6 +3154,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">退出到主菜单</t>
     </r>
@@ -3041,6 +3166,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在</t>
     </r>
@@ -3060,6 +3186,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">里退出可输入</t>
     </r>
@@ -3079,6 +3206,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">或关电源</t>
     </r>
@@ -3103,6 +3231,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这个软件可以做</t>
     </r>
@@ -3122,6 +3251,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">盘</t>
     </r>
@@ -3143,6 +3273,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">做备份</t>
     </r>
@@ -3163,6 +3294,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">出现</t>
     </r>
@@ -3187,6 +3319,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">装</t>
     </r>
@@ -3206,6 +3339,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">后设置成默认</t>
     </r>
@@ -3223,6 +3357,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">把</t>
     </r>
@@ -3242,6 +3377,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的图存成文件</t>
     </r>
@@ -3262,6 +3398,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">改</t>
     </r>
@@ -3293,6 +3430,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">打开</t>
     </r>
@@ -3312,6 +3450,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">圈出新加部分 </t>
     </r>
@@ -3331,6 +3470,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到 </t>
     </r>
@@ -3350,6 +3490,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">上 </t>
     </r>
@@ -3369,11 +3510,23 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">填充圈出的范围</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">VLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medien→Aufnamegerätöffnen→Aufnahmmodus:Direct show
+Video-gerätname: select the webcam name
+Wiedergabe:yes</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3390,6 +3543,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是有</t>
     </r>
@@ -3409,6 +3563,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本的</t>
     </r>
@@ -3428,6 +3583,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">键</t>
     </r>
@@ -3475,6 +3631,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">定义时变量设为</t>
     </r>
@@ -3494,6 +3651,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，没有</t>
     </r>
@@ -3513,6 +3671,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，其它继承它的</t>
     </r>
@@ -3532,6 +3691,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">里的相同变量须有</t>
     </r>
@@ -3551,6 +3711,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">即须</t>
     </r>
@@ -3570,6 +3731,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">它</t>
     </r>
@@ -3591,6 +3753,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">生物</t>
     </r>
@@ -3615,6 +3778,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">用于建</t>
     </r>
@@ -3634,6 +3798,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如果一个</t>
     </r>
@@ -3653,6 +3818,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的</t>
     </r>
@@ -3672,6 +3838,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是一个</t>
     </r>
@@ -3691,6 +3858,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">里定义的，那它可适用于任何类型的变量</t>
     </r>
@@ -3746,6 +3914,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3814,7 +3983,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3867,6 +4036,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3906,16 +4079,16 @@
   </sheetPr>
   <dimension ref="B1:D175"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B178" activeCellId="0" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6801619433198"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -3924,6 +4097,10 @@
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
     </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4326,6 +4503,10 @@
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
     </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+    </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="n">
         <v>3</v>
@@ -4496,6 +4677,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4616,6 +4798,10 @@
         <v>136</v>
       </c>
     </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0"/>
+      <c r="C91" s="0"/>
+    </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="n">
         <v>5.1</v>
@@ -4738,6 +4924,10 @@
         <v>162</v>
       </c>
     </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+    </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0"/>
       <c r="C107" s="8" t="s">
@@ -4765,6 +4955,14 @@
         <v>168</v>
       </c>
     </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0"/>
+      <c r="C111" s="0"/>
+    </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="n">
         <v>5.2</v>
@@ -4785,6 +4983,10 @@
         <v>172</v>
       </c>
     </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+    </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="n">
         <v>6</v>
@@ -4851,6 +5053,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0"/>
+      <c r="C122" s="0"/>
       <c r="D122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,6 +5124,10 @@
         <v>200</v>
       </c>
     </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0"/>
+      <c r="C131" s="0"/>
+    </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1" t="n">
         <v>6.1</v>
@@ -5019,6 +5226,10 @@
         <v>218</v>
       </c>
     </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0"/>
+      <c r="C143" s="0"/>
+    </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="n">
         <v>6.21</v>
@@ -5045,6 +5256,10 @@
         <v>223</v>
       </c>
     </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0"/>
+      <c r="C147" s="0"/>
+    </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="1" t="n">
         <v>6.22</v>
@@ -5097,6 +5312,14 @@
         <v>232</v>
       </c>
     </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+    </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0"/>
       <c r="C156" s="8" t="s">
@@ -5115,6 +5338,10 @@
         <v>75</v>
       </c>
     </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0"/>
+      <c r="C158" s="0"/>
+    </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="1" t="n">
         <v>8</v>
@@ -5140,6 +5367,14 @@
       <c r="D161" s="1" t="s">
         <v>240</v>
       </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="n">
@@ -5222,16 +5457,16 @@
   </sheetPr>
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.17813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -5354,35 +5589,51 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5403,18 +5654,18 @@
   </sheetPr>
   <dimension ref="B1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="3.74898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5424,52 +5675,61 @@
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0"/>
       <c r="C2" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0"/>
       <c r="C3" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0"/>
       <c r="C5" s="11" t="s">
-        <v>287</v>
-      </c>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0"/>
       <c r="C7" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0"/>
       <c r="C8" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0"/>
       <c r="C10" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5481,98 +5741,110 @@
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0"/>
       <c r="C15" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="4" t="s">
-        <v>295</v>
-      </c>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
       <c r="C21" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0"/>
       <c r="C22" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0"/>
       <c r="C26" s="11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
       <c r="C27" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
       <c r="C28" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
       <c r="C29" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0"/>
       <c r="C32" s="11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0"/>
       <c r="C33" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0"/>
       <c r="C34" s="11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,121 +5853,154 @@
         <v>208</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0"/>
+    </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0"/>
       <c r="C38" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="4" t="s">
-        <v>310</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
       <c r="C43" s="4"/>
     </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0"/>
+    </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
       <c r="C45" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0"/>
       <c r="C46" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0"/>
       <c r="C47" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0"/>
       <c r="C48" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0"/>
       <c r="C49" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0"/>
       <c r="C50" s="11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>317</v>
-      </c>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0"/>
       <c r="C53" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0"/>
       <c r="C54" s="4" t="s">
-        <v>319</v>
-      </c>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="13" t="n">
+      <c r="B57" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>320</v>
+      <c r="C57" s="16" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0"/>
       <c r="C58" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0"/>
-      <c r="C60" s="15" t="s">
-        <v>323</v>
+      <c r="C60" s="16" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0"/>
       <c r="C61" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="13" t="n">
+      <c r="B63" s="14" t="n">
         <v>4</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5714,45 +6019,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.92712550607287"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.82186234817814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4"/>
       <c r="C2" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
       <c r="C3" s="11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="11" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5784,47 +6102,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="11" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="11" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5852,41 +6170,41 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.92712550607287"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.82186234817814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="53" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>348</v>
+        <v>353</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="61" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>351</v>
+        <v>356</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
